--- a/Michelson/Dati_Raccolti.xlsx
+++ b/Michelson/Dati_Raccolti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiaballico/Documents/Programmazione/Universita/Labo_2_Anno_ottica/Michelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C03A3B2-9B85-0F4D-A75B-7F87BC13932D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D92151-96A3-F642-B6F3-7C270813640D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{16CC3A8A-FF3D-D949-AEDB-55C63E72A104}"/>
   </bookViews>
@@ -17,7 +17,10 @@
     <sheet name="2_Misura di n_aria" sheetId="3" r:id="rId2"/>
     <sheet name="3_Misura luce bianca" sheetId="4" r:id="rId3"/>
     <sheet name="4_Misura doppietto Na" sheetId="5" r:id="rId4"/>
-    <sheet name="Export_Misure" sheetId="7" r:id="rId5"/>
+    <sheet name="Export_lambda" sheetId="7" r:id="rId5"/>
+    <sheet name="Export_n" sheetId="8" r:id="rId6"/>
+    <sheet name="Export_white" sheetId="9" r:id="rId7"/>
+    <sheet name="Export_Na" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Delta x [micro m]</t>
   </si>
@@ -214,18 +217,6 @@
   </si>
   <si>
     <t>Misure Delta_2</t>
-  </si>
-  <si>
-    <t>Misure di lambda</t>
-  </si>
-  <si>
-    <t>Misure di n_a</t>
-  </si>
-  <si>
-    <t>Misure di Delta_lambda coerenza</t>
-  </si>
-  <si>
-    <t>Misura di Delta_lambda doppietto</t>
   </si>
 </sst>
 </file>
@@ -383,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -405,9 +396,6 @@
     <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,22 +414,26 @@
     <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30624ADE-4E15-A343-AFBC-55E7ECCAB18D}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -796,12 +788,12 @@
       <c r="B1">
         <v>40</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -810,21 +802,21 @@
       <c r="B2">
         <v>130</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -841,75 +833,80 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="5">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5">
-        <v>10.23</v>
-      </c>
-      <c r="D5" s="4">
-        <v>140</v>
-      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="6">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6">
-        <v>10.23</v>
-      </c>
-      <c r="D6" s="3">
-        <v>140</v>
-      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="5">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5">
-        <v>10.23</v>
-      </c>
-      <c r="D7" s="4">
-        <v>140</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="6">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6">
-        <v>10.23</v>
-      </c>
-      <c r="D8" s="3">
-        <v>140</v>
-      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="5">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5">
-        <v>10.23</v>
-      </c>
-      <c r="D9" s="4">
-        <v>140</v>
-      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -924,21 +921,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5644B960-97FD-2140-A248-D997E82708C9}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
@@ -955,59 +952,69 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="23">
-        <v>42</v>
-      </c>
-      <c r="C3" s="23">
-        <v>50</v>
-      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="24">
-        <v>42</v>
-      </c>
-      <c r="C4" s="24">
-        <v>50</v>
-      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="23">
-        <v>42</v>
-      </c>
-      <c r="C5" s="23">
-        <v>50</v>
-      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="24">
-        <v>42</v>
-      </c>
-      <c r="C6" s="24">
-        <v>50</v>
-      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="23">
-        <v>42</v>
-      </c>
-      <c r="C7" s="23">
-        <v>50</v>
-      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1020,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663A4258-1AC7-4549-B4BF-31CB19D6025A}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1033,18 +1040,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="9"/>
@@ -1059,88 +1066,88 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
-      <c r="B6" s="13">
-        <v>15.58</v>
-      </c>
-      <c r="C6" s="13">
-        <v>15.54</v>
-      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
-      <c r="B7" s="13">
-        <v>15.58</v>
-      </c>
-      <c r="C7" s="13">
-        <v>15.54</v>
-      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
-      <c r="B8" s="13">
-        <v>15.57</v>
-      </c>
-      <c r="C8" s="13">
-        <v>15.54</v>
-      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
-      <c r="B9" s="13">
-        <v>15.57</v>
-      </c>
-      <c r="C9" s="13">
-        <v>15.54</v>
-      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
-      <c r="B10" s="13">
-        <v>15.57</v>
-      </c>
-      <c r="C10" s="13">
-        <v>15.54</v>
-      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="B11" s="13">
-        <v>15.57</v>
-      </c>
-      <c r="C11" s="13">
-        <v>15.54</v>
-      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1157,135 +1164,87 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="18">
-        <v>3</v>
-      </c>
-      <c r="C3" s="19">
-        <v>16.239999999999998</v>
-      </c>
-      <c r="D3" s="19">
-        <v>17.73</v>
-      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="16">
-        <v>3</v>
-      </c>
-      <c r="C4" s="17">
-        <v>17.73</v>
-      </c>
-      <c r="D4" s="17">
-        <v>19.11</v>
-      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="18">
-        <v>3</v>
-      </c>
-      <c r="C5" s="19">
-        <v>19.11</v>
-      </c>
-      <c r="D5" s="19">
-        <v>20.66</v>
-      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="16">
-        <v>2</v>
-      </c>
-      <c r="C6" s="17">
-        <v>20.66</v>
-      </c>
-      <c r="D6" s="17">
-        <v>22.07</v>
-      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="18">
-        <v>3</v>
-      </c>
-      <c r="C7" s="19">
-        <v>22.07</v>
-      </c>
-      <c r="D7" s="19">
-        <v>23.58</v>
-      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="16">
-        <v>4</v>
-      </c>
-      <c r="C8" s="17">
-        <v>23.58</v>
-      </c>
-      <c r="D8" s="17">
-        <v>24.98</v>
-      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="18">
-        <v>2</v>
-      </c>
-      <c r="C9" s="19">
-        <v>17.72</v>
-      </c>
-      <c r="D9" s="19">
-        <v>19.149999999999999</v>
-      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="16">
-        <v>2</v>
-      </c>
-      <c r="C10" s="17">
-        <v>19.149999999999999</v>
-      </c>
-      <c r="D10" s="17">
-        <v>22.17</v>
-      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1306,265 +1265,445 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016A1991-FB67-A14F-A165-AEDE31EB3B99}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:C7">'1_Misura di lambda'!B4:D9</f>
-        <v>x_1 [mm]</v>
-      </c>
-      <c r="B2" t="str">
-        <v>x_2 [mm]</v>
-      </c>
-      <c r="C2" t="str">
-        <v>N frange costr. [#]</v>
-      </c>
-      <c r="E2" t="str" cm="1">
-        <f t="array" ref="E2:F7">'2_Misura di n_aria'!B2:C7</f>
-        <v>N2 [#]</v>
-      </c>
-      <c r="F2" t="str">
-        <v>D [mm]</v>
-      </c>
-      <c r="H2" s="27" t="str" cm="1">
-        <f t="array" ref="H2:I8">'3_Misura luce bianca'!B5:C11</f>
-        <v>x1 [mm]</v>
-      </c>
-      <c r="I2" t="str">
-        <v>x2 [mm]</v>
-      </c>
-      <c r="K2" t="str" cm="1">
-        <f t="array" ref="K2:M10">'4_Misura doppietto Na'!B2:D10</f>
-        <v>m</v>
-      </c>
-      <c r="L2" t="str">
-        <v>x1 [mm]</v>
-      </c>
-      <c r="M2" t="str">
-        <v>x2 [mm]</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" cm="1">
+        <f t="array" ref="A1:C10">'1_Misura di lambda'!B5:D14</f>
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>10.23</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>140</v>
-      </c>
-      <c r="E3">
-        <v>42</v>
-      </c>
-      <c r="F3">
-        <v>50</v>
-      </c>
-      <c r="H3">
-        <v>15.58</v>
-      </c>
-      <c r="I3">
-        <v>15.54</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>16.239999999999998</v>
-      </c>
-      <c r="M3">
-        <v>17.73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>10.23</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>140</v>
-      </c>
-      <c r="E4">
-        <v>42</v>
-      </c>
-      <c r="F4">
-        <v>50</v>
-      </c>
-      <c r="H4">
-        <v>15.58</v>
-      </c>
-      <c r="I4">
-        <v>15.54</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>17.73</v>
-      </c>
-      <c r="M4">
-        <v>19.11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>10.23</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>140</v>
-      </c>
-      <c r="E5">
-        <v>42</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="H5">
-        <v>15.57</v>
-      </c>
-      <c r="I5">
-        <v>15.54</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>19.11</v>
-      </c>
-      <c r="M5">
-        <v>20.66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>10.23</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>140</v>
-      </c>
-      <c r="E6">
-        <v>42</v>
-      </c>
-      <c r="F6">
-        <v>50</v>
-      </c>
-      <c r="H6">
-        <v>15.57</v>
-      </c>
-      <c r="I6">
-        <v>15.54</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>20.66</v>
-      </c>
-      <c r="M6">
-        <v>22.07</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>10.23</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>140</v>
-      </c>
-      <c r="E7">
-        <v>42</v>
-      </c>
-      <c r="F7">
-        <v>50</v>
-      </c>
-      <c r="H7">
-        <v>15.57</v>
-      </c>
-      <c r="I7">
-        <v>15.54</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>22.07</v>
-      </c>
-      <c r="M7">
-        <v>23.58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H8">
-        <v>15.57</v>
-      </c>
-      <c r="I8">
-        <v>15.54</v>
-      </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-      <c r="L8">
-        <v>23.58</v>
-      </c>
-      <c r="M8">
-        <v>24.98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>17.72</v>
-      </c>
-      <c r="M9">
-        <v>19.149999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>19.149999999999999</v>
-      </c>
-      <c r="M10">
-        <v>22.17</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF4FF98-D3B1-6D46-9FB1-ACBE01D6884D}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" cm="1">
+        <f t="array" ref="A1:B10">'2_Misura di n_aria'!B3:C12</f>
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB915833-8106-664E-8CCE-DE727A85A8B9}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" cm="1">
+        <f t="array" ref="A1:B10">'3_Misura luce bianca'!B6:C15</f>
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08B8B22-89CE-8F4C-8430-C6C0F7F1CD7E}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" cm="1">
+        <f t="array" ref="A1:C10">'4_Misura doppietto Na'!B3:D12</f>
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Michelson/Dati_Raccolti.xlsx
+++ b/Michelson/Dati_Raccolti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiaballico/Documents/Programmazione/Universita/Labo_2_Anno_ottica/Michelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D92151-96A3-F642-B6F3-7C270813640D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2383E34E-86A0-E641-B392-868879B2D1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{16CC3A8A-FF3D-D949-AEDB-55C63E72A104}"/>
+    <workbookView xWindow="4880" yWindow="2400" windowWidth="28040" windowHeight="17440" xr2:uid="{16CC3A8A-FF3D-D949-AEDB-55C63E72A104}"/>
   </bookViews>
   <sheets>
     <sheet name="1_Misura di lambda" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Delta x [micro m]</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>N frange costr. [#]</t>
-  </si>
-  <si>
-    <t>Risolvere il sistema lineare e poi ne riparliamo</t>
   </si>
   <si>
     <t>Intervallo in cui cambia concavità delle frange (in cui esplorare pacchetto)</t>
@@ -771,7 +768,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -811,7 +808,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -833,23 +830,41 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="5">
+        <v>7.1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>7.33</v>
+      </c>
+      <c r="D5" s="4">
+        <v>150</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="6">
+        <v>7.39</v>
+      </c>
+      <c r="C6" s="6">
+        <v>7.71</v>
+      </c>
+      <c r="D6" s="3">
+        <v>200</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="5">
+        <v>7.78</v>
+      </c>
+      <c r="C7" s="5">
+        <v>8.02</v>
+      </c>
+      <c r="D7" s="4">
+        <v>153</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -924,47 +939,53 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
-      <c r="E1" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="19">
+        <v>41</v>
+      </c>
+      <c r="C3" s="19">
+        <v>50</v>
+      </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="20"/>
+      <c r="B4" s="20">
+        <v>42</v>
+      </c>
       <c r="C4" s="20"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>42</v>
+      </c>
       <c r="C5" s="19"/>
       <c r="D5" s="1"/>
     </row>
@@ -1030,7 +1051,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1041,7 +1062,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -1067,7 +1088,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -1076,23 +1097,31 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>10</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="18">
+        <v>10.53</v>
+      </c>
+      <c r="C6" s="18">
+        <v>10.63</v>
+      </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="23">
+        <v>10.53</v>
+      </c>
+      <c r="C7" s="23">
+        <v>10.62</v>
+      </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1164,7 +1193,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1172,7 +1201,7 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -1181,42 +1210,66 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="17">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="D3" s="18">
+        <v>1.1559999999999999</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="B4" s="15">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1.6839999999999999</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="17">
+        <v>4</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="D5" s="18">
+        <v>2.7240000000000002</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.64400000000000002</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1268,7 +1321,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1276,35 +1329,35 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" cm="1">
         <f t="array" ref="A1:C10">'1_Misura di lambda'!B5:D14</f>
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>7.33</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>7.39</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>7.71</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0</v>
+        <v>7.78</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>8.02</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1403,15 +1456,15 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" cm="1">
         <f t="array" ref="A1:B10">'2_Misura di n_aria'!B3:C12</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1419,7 +1472,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1499,18 +1552,18 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="21" cm="1">
         <f t="array" ref="A1:B10">'3_Misura luce bianca'!B6:C15</f>
-        <v>0</v>
+        <v>10.53</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>10.53</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1595,46 +1648,46 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="22" cm="1">
         <f t="array" ref="A1:C10">'4_Misura doppietto Na'!B3:D12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>1.1559999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.6839999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.3620000000000001</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2.7240000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.64400000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">

--- a/Michelson/Dati_Raccolti.xlsx
+++ b/Michelson/Dati_Raccolti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiaballico/Documents/Programmazione/Universita/Labo_2_Anno_ottica/Michelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2383E34E-86A0-E641-B392-868879B2D1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C2C218-B8AE-E948-B896-9E01D563DC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="2400" windowWidth="28040" windowHeight="17440" xr2:uid="{16CC3A8A-FF3D-D949-AEDB-55C63E72A104}"/>
+    <workbookView xWindow="4880" yWindow="2400" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{16CC3A8A-FF3D-D949-AEDB-55C63E72A104}"/>
   </bookViews>
   <sheets>
     <sheet name="1_Misura di lambda" sheetId="2" r:id="rId1"/>
@@ -371,12 +371,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -767,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30624ADE-4E15-A343-AFBC-55E7ECCAB18D}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -785,12 +783,12 @@
       <c r="B1">
         <v>40</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -799,25 +797,25 @@
       <c r="B2">
         <v>130</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -830,90 +828,96 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>7.1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>7.33</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="17">
         <v>150</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>7.39</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>7.71</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="18">
         <v>200</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>7.78</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>8.02</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="17">
         <v>153</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8.23</v>
+      </c>
+      <c r="D8" s="18">
+        <v>147</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -939,19 +943,19 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B3" sqref="B3:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -965,70 +969,70 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="19">
+      <c r="B3" s="17">
         <v>41</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <v>50</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="20">
+      <c r="B4" s="18">
         <v>42</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="19">
+      <c r="B5" s="17">
         <v>42</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1061,115 +1065,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>13</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="18">
+      <c r="A6" s="10"/>
+      <c r="B6" s="16">
         <v>10.53</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="16">
         <v>10.63</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="23">
+      <c r="A7" s="10"/>
+      <c r="B7" s="21">
         <v>10.53</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="21">
         <v>10.62</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1193,111 +1197,111 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B3" sqref="B3:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="17">
+      <c r="B3" s="15">
         <v>2</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="16">
         <v>0.57799999999999996</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <v>1.1559999999999999</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>3</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>0.84199999999999997</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <v>1.6839999999999999</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <v>4</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <v>1.3620000000000001</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="16">
         <v>2.7240000000000002</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>0.32200000000000001</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <v>0.64400000000000002</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1320,14 +1324,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016A1991-FB67-A14F-A165-AEDE31EB3B99}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" cm="1">
+      <c r="A1" s="19" cm="1">
         <f t="array" ref="A1:C10">'1_Misura di lambda'!B5:D14</f>
         <v>7.1</v>
       </c>
@@ -1362,13 +1366,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>8.23</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1454,7 +1458,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" cm="1">
+      <c r="A1" s="20" cm="1">
         <f t="array" ref="A1:B10">'2_Misura di n_aria'!B3:C12</f>
         <v>41</v>
       </c>
@@ -1550,7 +1554,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" cm="1">
+      <c r="A1" s="19" cm="1">
         <f t="array" ref="A1:B10">'3_Misura luce bianca'!B6:C15</f>
         <v>10.53</v>
       </c>
@@ -1646,7 +1650,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" cm="1">
+      <c r="A1" s="20" cm="1">
         <f t="array" ref="A1:C10">'4_Misura doppietto Na'!B3:D12</f>
         <v>2</v>
       </c>

--- a/Michelson/Dati_Raccolti.xlsx
+++ b/Michelson/Dati_Raccolti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiaballico/Documents/Programmazione/Universita/Labo_2_Anno_ottica/Michelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C2C218-B8AE-E948-B896-9E01D563DC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A4942C-C487-0647-9A0A-29188FD7D9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="2400" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{16CC3A8A-FF3D-D949-AEDB-55C63E72A104}"/>
+    <workbookView xWindow="4860" yWindow="2400" windowWidth="28040" windowHeight="17440" xr2:uid="{16CC3A8A-FF3D-D949-AEDB-55C63E72A104}"/>
   </bookViews>
   <sheets>
     <sheet name="1_Misura di lambda" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Delta x [micro m]</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>N frange costr. [#]</t>
-  </si>
-  <si>
-    <t>Intervallo in cui cambia concavità delle frange (in cui esplorare pacchetto)</t>
   </si>
   <si>
     <r>
@@ -214,6 +211,45 @@
   </si>
   <si>
     <t>Misure Delta_2</t>
+  </si>
+  <si>
+    <t>oscillava molto la manovella</t>
+  </si>
+  <si>
+    <t>dal cel 141</t>
+  </si>
+  <si>
+    <t>potrebbe essere completamente sbagliata perché non siamo sicuri il valore di x_1</t>
+  </si>
+  <si>
+    <t>WTF</t>
+  </si>
+  <si>
+    <t>dal cel 133</t>
+  </si>
+  <si>
+    <t>scartate</t>
+  </si>
+  <si>
+    <t>Valore atteso</t>
+  </si>
+  <si>
+    <t>633 nm</t>
+  </si>
+  <si>
+    <t>43 al tel</t>
+  </si>
+  <si>
+    <t>Valore di partenza</t>
+  </si>
+  <si>
+    <t>strano</t>
+  </si>
+  <si>
+    <t>contigua a quella precedente</t>
+  </si>
+  <si>
+    <t>(fingiamo che non esista)</t>
   </si>
 </sst>
 </file>
@@ -350,18 +386,9 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -379,12 +406,6 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -416,17 +437,23 @@
     <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -763,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30624ADE-4E15-A343-AFBC-55E7ECCAB18D}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D14"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -776,44 +803,51 @@
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>40</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>130</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="24"/>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>4</v>
@@ -826,106 +860,160 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="3">
-        <v>7.1</v>
+        <v>10.64</v>
       </c>
       <c r="C5" s="3">
-        <v>7.33</v>
-      </c>
-      <c r="D5" s="17">
-        <v>150</v>
+        <v>10.85</v>
+      </c>
+      <c r="D5" s="15">
+        <v>130</v>
       </c>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="4">
-        <v>7.39</v>
+        <v>10.1</v>
       </c>
       <c r="C6" s="4">
-        <v>7.71</v>
-      </c>
-      <c r="D6" s="18">
-        <v>200</v>
+        <v>10.3</v>
+      </c>
+      <c r="D6" s="16">
+        <v>128</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="3">
-        <v>7.78</v>
+        <v>10.3</v>
       </c>
       <c r="C7" s="3">
-        <v>8.02</v>
-      </c>
-      <c r="D7" s="17">
-        <v>153</v>
+        <v>10.5</v>
+      </c>
+      <c r="D7" s="15">
+        <v>130</v>
       </c>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="4">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="C8" s="4">
-        <v>8.23</v>
-      </c>
-      <c r="D8" s="18">
-        <v>147</v>
+        <v>10.7</v>
+      </c>
+      <c r="D8" s="16">
+        <v>130</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10.91</v>
+      </c>
+      <c r="D9" s="15">
+        <v>134</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="D10" s="16">
+        <v>133</v>
+      </c>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="17"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="18"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="17"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="18"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="D17" s="15">
+        <v>130</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3">
+        <v>10.85</v>
+      </c>
+      <c r="C18" s="3">
+        <v>11.08</v>
+      </c>
+      <c r="D18" s="15">
+        <v>131</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -942,97 +1030,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5644B960-97FD-2140-A248-D997E82708C9}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B12"/>
+    <sheetView zoomScale="218" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="A1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="17">
-        <v>41</v>
-      </c>
-      <c r="C3" s="17">
+      <c r="B3" s="15">
+        <v>42</v>
+      </c>
+      <c r="C3" s="15">
         <v>50</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="18">
+      <c r="B4" s="16">
         <v>42</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="1"/>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <v>42</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="1"/>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="16">
+        <v>43</v>
+      </c>
+      <c r="C6" s="16"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="15">
+        <v>41</v>
+      </c>
+      <c r="C7" s="15"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="16">
+        <v>42</v>
+      </c>
+      <c r="C8" s="16"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1054,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663A4258-1AC7-4549-B4BF-31CB19D6025A}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="190" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1065,115 +1165,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="8">
-        <v>13</v>
-      </c>
-      <c r="C3" s="8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="16">
-        <v>10.53</v>
-      </c>
-      <c r="C6" s="16">
-        <v>10.63</v>
+      <c r="A6" s="8"/>
+      <c r="B6" s="14">
+        <v>8.82</v>
+      </c>
+      <c r="C6" s="14">
+        <v>8.94</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="21">
-        <v>10.53</v>
-      </c>
-      <c r="C7" s="21">
-        <v>10.62</v>
+      <c r="A7" s="8"/>
+      <c r="B7" s="19">
+        <v>8.82</v>
+      </c>
+      <c r="C7" s="19">
+        <v>8.9499999999999993</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="14">
+        <v>8.82</v>
+      </c>
+      <c r="C8" s="14">
+        <v>8.94</v>
+      </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="19">
+        <v>8.82</v>
+      </c>
+      <c r="C9" s="19">
+        <v>8.94</v>
+      </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="14">
+        <v>8.82</v>
+      </c>
+      <c r="C10" s="14">
+        <v>8.9499999999999993</v>
+      </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="19">
+        <v>8.82</v>
+      </c>
+      <c r="C11" s="19">
+        <v>8.9499999999999993</v>
+      </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1183,8 +1298,7 @@
       <c r="D16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:J1"/>
+  <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1194,122 +1308,161 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E906B610-563A-3548-BFC6-88B93F997D04}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B10"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="15">
+      <c r="B3" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3" s="14">
+        <v>4.95</v>
+      </c>
+      <c r="D3" s="14">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12">
+        <v>5.95</v>
+      </c>
+      <c r="D4" s="12">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="13">
+        <v>4</v>
+      </c>
+      <c r="C5" s="14">
+        <v>5.67</v>
+      </c>
+      <c r="D5" s="14">
+        <v>10.42</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>11.72</v>
+      </c>
+      <c r="D6" s="12">
+        <v>13.2</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>10.34</v>
+      </c>
+      <c r="D7" s="26">
+        <v>11.72</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="11">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12">
+        <v>10.34</v>
+      </c>
+      <c r="D8" s="12">
+        <v>17.45</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="13">
         <v>2</v>
       </c>
-      <c r="C3" s="16">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="D3" s="16">
-        <v>1.1559999999999999</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="13">
-        <v>3</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1.6839999999999999</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="15">
-        <v>4</v>
-      </c>
-      <c r="C5" s="16">
-        <v>1.3620000000000001</v>
-      </c>
-      <c r="D5" s="16">
-        <v>2.7240000000000002</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="D6" s="14">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="14">
+        <v>10.3</v>
+      </c>
+      <c r="D9" s="14">
+        <v>13.28</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="11">
+        <v>2</v>
+      </c>
+      <c r="C10" s="12">
+        <v>13.28</v>
+      </c>
+      <c r="D10" s="12">
+        <v>16.079999999999998</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="13"/>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1324,77 +1477,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016A1991-FB67-A14F-A165-AEDE31EB3B99}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
-    </sheetView>
+    <sheetView zoomScale="187" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" cm="1">
+      <c r="A1" s="17" cm="1">
         <f t="array" ref="A1:C10">'1_Misura di lambda'!B5:D14</f>
-        <v>7.1</v>
+        <v>10.64</v>
       </c>
       <c r="B1">
-        <v>7.33</v>
+        <v>10.85</v>
       </c>
       <c r="C1">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>7.39</v>
+        <v>10.1</v>
       </c>
       <c r="B2">
-        <v>7.71</v>
+        <v>10.3</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7.78</v>
+        <v>10.3</v>
       </c>
       <c r="B3">
-        <v>8.02</v>
+        <v>10.5</v>
       </c>
       <c r="C3">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="B4">
-        <v>8.23</v>
+        <v>10.7</v>
       </c>
       <c r="C4">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>10.91</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1458,9 +1609,9 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" cm="1">
+      <c r="A1" s="18" cm="1">
         <f t="array" ref="A1:B10">'2_Misura di n_aria'!B3:C12</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1">
         <v>50</v>
@@ -1484,7 +1635,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1492,7 +1643,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1500,7 +1651,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1548,58 +1699,58 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" cm="1">
+      <c r="A1" s="17" cm="1">
         <f t="array" ref="A1:B10">'3_Misura luce bianca'!B6:C15</f>
-        <v>10.53</v>
+        <v>8.82</v>
       </c>
       <c r="B1">
-        <v>10.63</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>10.53</v>
+        <v>8.82</v>
       </c>
       <c r="B2">
-        <v>10.62</v>
+        <v>8.9499999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0</v>
+        <v>8.82</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0</v>
+        <v>8.82</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0</v>
+        <v>8.82</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>8.9499999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0</v>
+        <v>8.82</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>8.9499999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1650,15 +1801,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" cm="1">
+      <c r="A1" s="18" cm="1">
         <f t="array" ref="A1:C10">'4_Misura doppietto Na'!B3:D12</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1">
-        <v>0.57799999999999996</v>
+        <v>4.95</v>
       </c>
       <c r="C1">
-        <v>1.1559999999999999</v>
+        <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1666,10 +1817,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.84199999999999997</v>
+        <v>5.95</v>
       </c>
       <c r="C2">
-        <v>1.6839999999999999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1677,10 +1828,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1.3620000000000001</v>
+        <v>5.67</v>
       </c>
       <c r="C3">
-        <v>2.7240000000000002</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1688,54 +1839,54 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.32200000000000001</v>
+        <v>11.72</v>
       </c>
       <c r="C4">
-        <v>0.64400000000000002</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>10.34</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>10.34</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>17.45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>13.28</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>16.079999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">

--- a/Michelson/Dati_Raccolti.xlsx
+++ b/Michelson/Dati_Raccolti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiaballico/Documents/Programmazione/Universita/Labo_2_Anno_ottica/Michelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A4942C-C487-0647-9A0A-29188FD7D9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554BFBCF-B8BA-BE4D-AB23-F644C5862CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4860" yWindow="2400" windowWidth="28040" windowHeight="17440" xr2:uid="{16CC3A8A-FF3D-D949-AEDB-55C63E72A104}"/>
   </bookViews>
@@ -793,7 +793,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Michelson/Dati_Raccolti.xlsx
+++ b/Michelson/Dati_Raccolti.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiaballico/Documents/Programmazione/Universita/Labo_2_Anno_ottica/Michelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554BFBCF-B8BA-BE4D-AB23-F644C5862CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C73F00-A189-3F4D-8B9F-CA6467DC1CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="2400" windowWidth="28040" windowHeight="17440" xr2:uid="{16CC3A8A-FF3D-D949-AEDB-55C63E72A104}"/>
+    <workbookView xWindow="2820" yWindow="1860" windowWidth="28040" windowHeight="17440" activeTab="8" xr2:uid="{16CC3A8A-FF3D-D949-AEDB-55C63E72A104}"/>
   </bookViews>
   <sheets>
-    <sheet name="1_Misura di lambda" sheetId="2" r:id="rId1"/>
-    <sheet name="2_Misura di n_aria" sheetId="3" r:id="rId2"/>
-    <sheet name="3_Misura luce bianca" sheetId="4" r:id="rId3"/>
-    <sheet name="4_Misura doppietto Na" sheetId="5" r:id="rId4"/>
-    <sheet name="Export_lambda" sheetId="7" r:id="rId5"/>
-    <sheet name="Export_n" sheetId="8" r:id="rId6"/>
-    <sheet name="Export_white" sheetId="9" r:id="rId7"/>
-    <sheet name="Export_Na" sheetId="10" r:id="rId8"/>
+    <sheet name="Cosa contiene questo file" sheetId="11" r:id="rId1"/>
+    <sheet name="1_Misura di lambda" sheetId="2" r:id="rId2"/>
+    <sheet name="2_Misura di n_aria" sheetId="3" r:id="rId3"/>
+    <sheet name="3_Misura luce bianca" sheetId="4" r:id="rId4"/>
+    <sheet name="4_Misura doppietto Na" sheetId="5" r:id="rId5"/>
+    <sheet name="Export_lambda" sheetId="7" r:id="rId6"/>
+    <sheet name="Export_n" sheetId="8" r:id="rId7"/>
+    <sheet name="Export_white" sheetId="9" r:id="rId8"/>
+    <sheet name="Export_Na" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,19 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
-  <si>
-    <t>Delta x [micro m]</t>
-  </si>
-  <si>
-    <t>(ci permette di arrivare ad un errore del 5%)</t>
-  </si>
-  <si>
-    <t>N (frange costr)</t>
-  </si>
-  <si>
-    <t>(l'errore sul contare +/- una frangia è trascurabile)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>x_1 [mm]</t>
   </si>
@@ -195,67 +184,64 @@
     </r>
   </si>
   <si>
-    <t>Misure lambda (5 vanno bene)</t>
-  </si>
-  <si>
     <t>N2 [#]</t>
   </si>
   <si>
     <t>D [mm]</t>
   </si>
   <si>
-    <t>Misure indice n (5 ok)</t>
-  </si>
-  <si>
-    <t>Misure intervalli (anche -5)</t>
-  </si>
-  <si>
-    <t>Misure Delta_2</t>
-  </si>
-  <si>
-    <t>oscillava molto la manovella</t>
-  </si>
-  <si>
-    <t>dal cel 141</t>
-  </si>
-  <si>
-    <t>potrebbe essere completamente sbagliata perché non siamo sicuri il valore di x_1</t>
-  </si>
-  <si>
-    <t>WTF</t>
-  </si>
-  <si>
-    <t>dal cel 133</t>
-  </si>
-  <si>
-    <t>scartate</t>
-  </si>
-  <si>
-    <t>Valore atteso</t>
-  </si>
-  <si>
-    <t>633 nm</t>
-  </si>
-  <si>
-    <t>43 al tel</t>
-  </si>
-  <si>
-    <t>Valore di partenza</t>
-  </si>
-  <si>
-    <t>strano</t>
-  </si>
-  <si>
-    <t>contigua a quella precedente</t>
-  </si>
-  <si>
-    <t>(fingiamo che non esista)</t>
+    <t>misure scartate:</t>
+  </si>
+  <si>
+    <t>Misure indice rifrazione dell'aria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questo file è diviso in 9 fogli: </t>
+  </si>
+  <si>
+    <t>questo foglio in cui è contenuta la stuttura del file</t>
+  </si>
+  <si>
+    <t>4 fogli, il cui nome inizia con un numero, in cui sono contenute le tabelle delle misure effettuate (con alcuni commenti) + il miglior valore (calcolato utilizzando uno script python)</t>
+  </si>
+  <si>
+    <t>4 fogli, il cui nome inizia con "Export", in cui sono riscritti i dati contenuti nelle tabelle senza nient'altro per rendere più semplice l'import dei dati nello script python</t>
+  </si>
+  <si>
+    <t>Misure della lunghezza d'onda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miglior valore della lunghezza d'onda [nm]: </t>
+  </si>
+  <si>
+    <t>Misure intervalli di coerenza</t>
+  </si>
+  <si>
+    <t>D è il valore nominale della camera a vuoto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miglior valore della lunghezza del pacchetto [µm]: </t>
+  </si>
+  <si>
+    <t>Misure separazione del doppietto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miglior valore della separazione del doppietto del sodio [Å]: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miglior valore dell'indice di rifrazione dell'aria: </t>
+  </si>
+  <si>
+    <t>rigettata secondo Chauvenet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -330,7 +316,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,13 +371,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F3C3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -440,20 +447,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -462,6 +465,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF8F3C3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -789,273 +797,266 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A06F91E-6FFF-9C40-AF8F-D2A22FD90594}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30624ADE-4E15-A343-AFBC-55E7ECCAB18D}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>40</v>
-      </c>
-      <c r="C1" s="21" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="E2" s="1"/>
+      <c r="G2" s="22">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3">
+        <v>10.64</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10.85</v>
+      </c>
+      <c r="D3" s="15">
         <v>130</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="24"/>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
+      <c r="B4" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="D4" s="16">
+        <v>128</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="3">
-        <v>10.64</v>
+        <v>10.3</v>
       </c>
       <c r="C5" s="3">
-        <v>10.85</v>
+        <v>10.5</v>
       </c>
       <c r="D5" s="15">
         <v>130</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="4">
-        <v>10.1</v>
+        <v>10.5</v>
       </c>
       <c r="C6" s="4">
-        <v>10.3</v>
+        <v>10.7</v>
       </c>
       <c r="D6" s="16">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="3">
-        <v>10.3</v>
+        <v>10.7</v>
       </c>
       <c r="C7" s="3">
-        <v>10.5</v>
+        <v>10.91</v>
       </c>
       <c r="D7" s="15">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="4">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
       <c r="C8" s="4">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
       <c r="D8" s="16">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="3">
-        <v>10.7</v>
+        <v>10.85</v>
       </c>
       <c r="C9" s="3">
-        <v>10.91</v>
+        <v>11.08</v>
       </c>
       <c r="D9" s="15">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="4">
-        <v>10.1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>10.3</v>
-      </c>
-      <c r="D10" s="16">
-        <v>133</v>
-      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="1"/>
-      <c r="F10">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="16"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="15"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
         <v>10.8</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D15" s="15">
         <v>130</v>
       </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3">
-        <v>10.85</v>
-      </c>
-      <c r="C18" s="3">
-        <v>11.08</v>
-      </c>
-      <c r="D18" s="15">
-        <v>131</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
+      <c r="E15" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:E3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5644B960-97FD-2140-A248-D997E82708C9}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="218" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="22">
+        <v>1.0002660000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="15">
         <v>42</v>
@@ -1064,30 +1065,27 @@
         <v>50</v>
       </c>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="16">
         <v>42</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="1"/>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="15">
         <v>42</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="1"/>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="16">
         <v>43</v>
@@ -1095,7 +1093,7 @@
       <c r="C6" s="16"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="15">
         <v>41</v>
@@ -1103,7 +1101,7 @@
       <c r="C7" s="15"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="16">
         <v>42</v>
@@ -1111,31 +1109,31 @@
       <c r="C8" s="16"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1150,12 +1148,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663A4258-1AC7-4549-B4BF-31CB19D6025A}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="190" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1165,180 +1163,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="A1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="F1" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="F2" s="22">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="14">
+        <v>8.82</v>
+      </c>
+      <c r="C3" s="14">
+        <v>8.94</v>
+      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="19">
+        <v>8.82</v>
+      </c>
+      <c r="C4" s="19">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>8</v>
+      <c r="A5" s="8"/>
+      <c r="B5" s="14">
+        <v>8.82</v>
+      </c>
+      <c r="C5" s="14">
+        <v>8.94</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
-      <c r="B6" s="14">
+      <c r="B6" s="19">
         <v>8.82</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="19">
         <v>8.94</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
-      <c r="B7" s="19">
+      <c r="B7" s="14">
         <v>8.82</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="14">
         <v>8.9499999999999993</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
-      <c r="B8" s="14">
+      <c r="B8" s="19">
         <v>8.82</v>
       </c>
-      <c r="C8" s="14">
-        <v>8.94</v>
+      <c r="C8" s="19">
+        <v>8.9499999999999993</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" s="19">
-        <v>8.82</v>
-      </c>
-      <c r="C9" s="19">
-        <v>8.94</v>
-      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
-      <c r="B10" s="14">
-        <v>8.82</v>
-      </c>
-      <c r="C10" s="14">
-        <v>8.9499999999999993</v>
-      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
-      <c r="B11" s="19">
-        <v>8.82</v>
-      </c>
-      <c r="C11" s="19">
-        <v>8.9499999999999993</v>
-      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E906B610-563A-3548-BFC6-88B93F997D04}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="24">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="13">
         <v>3</v>
@@ -1351,7 +1341,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="11">
         <v>3</v>
@@ -1364,7 +1354,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="13">
         <v>4</v>
@@ -1376,93 +1366,86 @@
         <v>10.42</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="11">
         <v>1</v>
       </c>
       <c r="C6" s="12">
+        <v>10.34</v>
+      </c>
+      <c r="D6" s="23">
         <v>11.72</v>
       </c>
-      <c r="D6" s="12">
-        <v>13.2</v>
-      </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="13">
         <v>1</v>
       </c>
       <c r="C7" s="14">
-        <v>10.34</v>
-      </c>
-      <c r="D7" s="26">
         <v>11.72</v>
       </c>
+      <c r="D7" s="14">
+        <v>13.2</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" s="12">
-        <v>10.34</v>
+        <v>10.3</v>
       </c>
       <c r="D8" s="12">
-        <v>17.45</v>
+        <v>13.28</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="13">
         <v>2</v>
       </c>
       <c r="C9" s="14">
-        <v>10.3</v>
+        <v>13.28</v>
       </c>
       <c r="D9" s="14">
-        <v>13.28</v>
+        <v>16.079999999999998</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" s="12">
-        <v>13.28</v>
+        <v>10.34</v>
       </c>
       <c r="D10" s="12">
-        <v>16.079999999999998</v>
+        <v>17.45</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="13"/>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1473,7 +1456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016A1991-FB67-A14F-A165-AEDE31EB3B99}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -1483,7 +1466,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="17" cm="1">
-        <f t="array" ref="A1:C10">'1_Misura di lambda'!B5:D14</f>
+        <f t="array" ref="A1:C10">'1_Misura di lambda'!B3:D12</f>
         <v>10.64</v>
       </c>
       <c r="B1">
@@ -1550,13 +1533,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0</v>
+        <v>10.85</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>11.08</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1598,7 +1581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF4FF98-D3B1-6D46-9FB1-ACBE01D6884D}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -1694,7 +1677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB915833-8106-664E-8CCE-DE727A85A8B9}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -1706,7 +1689,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="17" cm="1">
-        <f t="array" ref="A1:B10">'3_Misura luce bianca'!B6:C15</f>
+        <f t="array" ref="A1:B10">'3_Misura luce bianca'!B3:C12</f>
         <v>8.82</v>
       </c>
       <c r="B1">
@@ -1790,12 +1773,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08B8B22-89CE-8F4C-8430-C6C0F7F1CD7E}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1839,10 +1822,10 @@
         <v>1</v>
       </c>
       <c r="B4">
+        <v>10.34</v>
+      </c>
+      <c r="C4">
         <v>11.72</v>
-      </c>
-      <c r="C4">
-        <v>13.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1850,21 +1833,21 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>10.34</v>
+        <v>11.72</v>
       </c>
       <c r="C5">
-        <v>11.72</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>10.34</v>
+        <v>10.3</v>
       </c>
       <c r="C6">
-        <v>17.45</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1872,21 +1855,21 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>10.3</v>
+        <v>13.28</v>
       </c>
       <c r="C7">
-        <v>13.28</v>
+        <v>16.079999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>13.28</v>
+        <v>10.34</v>
       </c>
       <c r="C8">
-        <v>16.079999999999998</v>
+        <v>17.45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
